--- a/data/Cell_Types.xlsx
+++ b/data/Cell_Types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\April\Desktop\bpc_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB76FCFB-C195-4492-8CFD-578087E21499}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CFA228-D340-4A21-91E0-4C7844BB8448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{9BF8CF62-395D-4E17-9E86-E00904A6E6C0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="436">
   <si>
     <t>R3MK110629_01</t>
   </si>
@@ -1262,9 +1262,6 @@
     <t>DB6</t>
   </si>
   <si>
-    <t>ON diffuse</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
@@ -1274,18 +1271,9 @@
     <t>DB5 or DB6</t>
   </si>
   <si>
-    <t>diffuse OFF</t>
-  </si>
-  <si>
-    <t>DB3B cone pair</t>
-  </si>
-  <si>
     <t>DB3</t>
   </si>
   <si>
-    <t>FMB two cones</t>
-  </si>
-  <si>
     <t>DB2 or FMB</t>
   </si>
   <si>
@@ -1298,18 +1286,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Diffuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB2-cone pair </t>
-  </si>
-  <si>
-    <t>DB1-cone pair</t>
-  </si>
-  <si>
-    <t>DB2 + ON</t>
-  </si>
-  <si>
     <t>DB4 or DB5</t>
   </si>
   <si>
@@ -1319,12 +1295,6 @@
     <t>DB4 or DB3B</t>
   </si>
   <si>
-    <t>FMB-cone pair</t>
-  </si>
-  <si>
-    <t>DB Bistratified</t>
-  </si>
-  <si>
     <t>DB2 or DB3</t>
   </si>
   <si>
@@ -1334,9 +1304,6 @@
     <t>RBC or DB6</t>
   </si>
   <si>
-    <t>Widefield ON</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -1349,13 +1316,28 @@
     <t>FMB or DB2</t>
   </si>
   <si>
-    <t>DB3B-cone pair</t>
-  </si>
-  <si>
     <t>R3MK110504_02</t>
   </si>
   <si>
-    <t>Diffuse OFF</t>
+    <t>ON DB</t>
+  </si>
+  <si>
+    <t>DB3B cone</t>
+  </si>
+  <si>
+    <t>FMB cones</t>
+  </si>
+  <si>
+    <t>DB2 cone</t>
+  </si>
+  <si>
+    <t>DB1 cone</t>
+  </si>
+  <si>
+    <t>DB2 or ON</t>
+  </si>
+  <si>
+    <t>FMB cone</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1706,7 @@
   <dimension ref="A1:C400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1780,10 +1762,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1948,7 +1930,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2091,7 +2073,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2102,7 +2084,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2179,7 +2161,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2234,7 +2216,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2410,7 +2392,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2498,7 +2480,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2564,7 +2546,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2575,7 +2557,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2586,7 +2568,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2663,7 +2645,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2707,7 +2689,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2740,7 +2722,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2751,7 +2733,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2762,7 +2744,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2773,7 +2755,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2828,7 +2810,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2916,7 +2898,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2927,7 +2909,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2949,7 +2931,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3169,7 +3151,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3180,7 +3162,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3323,7 +3305,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3367,7 +3349,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3389,7 +3371,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3477,7 +3459,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3499,7 +3481,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3532,7 +3514,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3543,7 +3525,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -3609,7 +3591,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3653,7 +3635,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3697,7 +3679,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3796,7 +3778,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3873,7 +3855,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3917,7 +3899,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -4016,7 +3998,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4027,7 +4009,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4038,7 +4020,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4093,7 +4075,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4192,7 +4174,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4225,7 +4207,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4401,7 +4383,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -4445,7 +4427,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4467,7 +4449,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4511,7 +4493,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4632,7 +4614,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4643,7 +4625,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4709,7 +4691,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4731,7 +4713,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4742,7 +4724,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4753,7 +4735,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4786,7 +4768,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4830,7 +4812,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4841,7 +4823,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -4852,7 +4834,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4863,7 +4845,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -4918,7 +4900,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -4951,7 +4933,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5006,7 +4988,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -5028,7 +5010,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -5215,7 +5197,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5292,7 +5274,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5325,7 +5307,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -5402,7 +5384,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -5435,7 +5417,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5534,7 +5516,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5545,7 +5527,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5567,7 +5549,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5589,7 +5571,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5842,7 +5824,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -5974,7 +5956,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6106,7 +6088,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6128,7 +6110,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C400">
         <v>0</v>
